--- a/Analysis/Supply Analysis/Colorado Analysis.xlsx
+++ b/Analysis/Supply Analysis/Colorado Analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\Supply Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156BFFD6-8C84-464E-A88C-13B29B6108A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79025-3BC9-4D4E-BBD7-AFA3B5058378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 var" sheetId="118" r:id="rId1"/>
-    <sheet name="DWR portfolio" sheetId="106" r:id="rId2"/>
-    <sheet name="Colorado WY" sheetId="117" r:id="rId3"/>
-    <sheet name="Colorado CY" sheetId="120" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="121" r:id="rId2"/>
+    <sheet name="DWR portfolio" sheetId="106" r:id="rId3"/>
+    <sheet name="Colorado WY" sheetId="117" r:id="rId4"/>
+    <sheet name="Colorado CY" sheetId="120" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>SWDI SC</t>
   </si>
@@ -180,6 +203,15 @@
   </si>
   <si>
     <t>Colorado &amp; GW</t>
+  </si>
+  <si>
+    <t>log_SWDI delta imports</t>
+  </si>
+  <si>
+    <t>Actual Colorado River imports</t>
+  </si>
+  <si>
+    <t>Estimated Colorado River imports</t>
   </si>
 </sst>
 </file>
@@ -368,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -395,6 +427,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -825,6 +865,1779 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Col</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; GW vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SWDI delta </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Colorado WY'!$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SWDI delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8906605424321856E-2"/>
+                  <c:y val="-0.35819079906678331"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Colorado WY'!$F$23:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.469444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54722222222222205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55833333333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53611111111111098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26944444444444399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20555555555555499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.469444444444444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86944444444444402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59722222222222199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38333333333333303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.105555555555555</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3888888888888801E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52777777777777701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50833333333333297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Colorado WY'!$E$23:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3206.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2299.2999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2574.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.2999999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2546.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2881.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2951.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2960.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2306.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2386.2999999999988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3128.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3716.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3035.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2517.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2496.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2190.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2196.8000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0AB-4983-B541-A427CF52BCB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034474112"/>
+        <c:axId val="1034474592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1034474112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Surface Water Drought Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1034474592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Colorado Deliveries (maf)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Colorado CY'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SWDI delta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10266455480394732"/>
+                  <c:y val="-0.45271097123644927"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$G$3:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.46388888888888802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61111111111111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51388888888888895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89722222222222203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38055555555555498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23611111111111099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23055555555555499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57777777777777695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93055555555555503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48611111111111099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.313888888888888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2222222222222104E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.83333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46111111111111103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79444444444444395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41111111111111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1309.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1098.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>771.69999999999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1254.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1216.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>902.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1304.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1730.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1573.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1186.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>917.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>775.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>834.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28DB-4C07-968B-7F61D8D34800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034474112"/>
+        <c:axId val="1034474592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1034474112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Surface Water Drought Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1034474592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Colorado Deliveries (maf)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Colorado CY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SWDI SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17251835277319069"/>
+                  <c:y val="-0.41071058243746666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$H$3:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78888888888888797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66111111111111098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35277777777777702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50277777777777699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95277777777777795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84722222222222199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23055555555555499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2222222222222202E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23611111111111099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66944444444444395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85555555555555496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1309.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1098.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>771.69999999999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1254.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1216.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>902.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1304.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1730.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1573.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1186.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>917.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>775.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>834.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C750-45AE-991E-1649B4773B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034474112"/>
+        <c:axId val="1034474592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1034474112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Surface Water Drought Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1034474592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Colorado Deliveries (maf)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1404,7 +3217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1984,7 +3797,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2611,6 +4424,542 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Colorado River imports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1028.14713879792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>976.31955730309369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969.52398367193041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>889.0776867781201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>812.31673660451281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>983.25453699482807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1215.8385713100911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1307.3353940657976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1028.14713879792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>819.79406774811514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>946.76078316846395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1096.6550207866449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1532.6508640549739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1702.3922866444746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1280.9790600918675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>988.55075609473397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>881.21527648156109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1001.2411406049484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC46-4CD7-8A36-415AD5B69E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Colorado River imports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1309.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1098.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>771.69999999999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1254.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1216.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>902.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1304.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1730.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1573.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1186.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>917.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>775.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>834.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC46-4CD7-8A36-415AD5B69E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1089308816"/>
+        <c:axId val="1089309296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1089308816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089309296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1089309296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089308816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2693,7 +5042,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -2735,63 +5084,63 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DWR portfolio'!$U$3:$U$20</c:f>
+              <c:f>'DWR portfolio'!$F$3:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.469444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60833333333333295</c:v>
+                  <c:v>0.54722222222222205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53888888888888797</c:v>
+                  <c:v>0.55833333333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54444444444444395</c:v>
+                  <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53888888888888797</c:v>
+                  <c:v>0.88888888888888895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44722222222222202</c:v>
+                  <c:v>0.53611111111111098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36944444444444402</c:v>
+                  <c:v>0.26944444444444399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.20555555555555499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26388888888888801</c:v>
+                  <c:v>0.469444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>0.86944444444444402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.59722222222222199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40833333333333299</c:v>
+                  <c:v>0.38333333333333303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.266666666666666</c:v>
+                  <c:v>0.105555555555555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>6.3888888888888801E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4444444444444398E-2</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13055555555555501</c:v>
+                  <c:v>0.52777777777777701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13055555555555501</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25277777777777699</c:v>
+                  <c:v>0.50833333333333297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,7 +5402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3067,37 +5416,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3106,19 +5425,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Colorado WY'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SWDI delta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3149,17 +5457,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10266455480394732"/>
-                  <c:y val="-0.45271097123644927"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3192,126 +5493,126 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$G$3:$G$20</c:f>
+              <c:f>'DWR portfolio'!$F$45:$F$62</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.469444444444444</c:v>
+                  <c:v>3.1170391678776785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54722222222222205</c:v>
+                  <c:v>2.8788663369567251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55833333333333302</c:v>
+                  <c:v>3.0408000612565291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70833333333333304</c:v>
+                  <c:v>2.887448500249953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>2.9067120569429639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53611111111111098</c:v>
+                  <c:v>3.0331824137291949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26944444444444399</c:v>
+                  <c:v>3.0984360453403634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20555555555555499</c:v>
+                  <c:v>3.0850764114720945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.469444444444444</c:v>
+                  <c:v>2.9946690218255294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86944444444444402</c:v>
+                  <c:v>2.980367026184775</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59722222222222199</c:v>
+                  <c:v>2.9553028227616913</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38333333333333303</c:v>
+                  <c:v>3.1153108949104995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.105555555555555</c:v>
+                  <c:v>3.2381214077815117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3888888888888801E-2</c:v>
+                  <c:v>3.1967839377377092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>3.074304344001435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52777777777777701</c:v>
+                  <c:v>2.9624166934457512</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>2.8895257966711911</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50833333333333297</c:v>
+                  <c:v>2.9215304135012423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
+              <c:f>'DWR portfolio'!$G$45:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1309.3</c:v>
+                  <c:v>-0.32841579615361416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.6</c:v>
+                  <c:v>-0.26183627460569447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1098.5</c:v>
+                  <c:v>-0.25310644334679866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>771.69999999999902</c:v>
+                  <c:v>-0.14976232033333228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806.7</c:v>
+                  <c:v>-5.1152522447381256E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.4000000000001</c:v>
+                  <c:v>-0.27074519175951361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254.4000000000001</c:v>
+                  <c:v>-0.56953076650104317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1216.4000000000001</c:v>
+                  <c:v>-0.68707078103631225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>987.8</c:v>
+                  <c:v>-0.32841579615361416</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>955.8</c:v>
+                  <c:v>-6.075816322083899E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>902.19999999999902</c:v>
+                  <c:v>-0.2238640408516821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1304.0999999999999</c:v>
+                  <c:v>-0.41642341436605113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1730.3</c:v>
+                  <c:v>-0.97651890415047937</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1573.2</c:v>
+                  <c:v>-1.1945746647496951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1186.5999999999999</c:v>
+                  <c:v>-0.65321251377534417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>917.1</c:v>
+                  <c:v>-0.27754889981445896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>775.4</c:v>
+                  <c:v>-0.13966199342900631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>834.7</c:v>
+                  <c:v>-0.29385141103685808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3319,7 +5620,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F884-47BC-9297-3F971699BA82}"/>
+              <c16:uniqueId val="{00000000-9D1E-4E43-A121-F8C7C0166CDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3331,11 +5632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1034474112"/>
-        <c:axId val="1034474592"/>
+        <c:axId val="837156735"/>
+        <c:axId val="837150975"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1034474112"/>
+        <c:axId val="837156735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,15 +5676,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Surface Water Drought Indicator</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(SWDI)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3417,7 +5711,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3454,12 +5748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034474592"/>
+        <c:crossAx val="837150975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1034474592"/>
+        <c:axId val="837150975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,15 +5793,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Colorado Deliveries (maf)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log (Colorado)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3578,7 +5865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034474112"/>
+        <c:crossAx val="837156735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3634,7 +5921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3648,37 +5935,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3687,17 +5944,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Colorado WY'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SWDI SC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3734,12 +5980,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.17251835277319069"/>
-                  <c:y val="-0.41071058243746666"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3772,125 +6012,122 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$H$3:$H$20</c:f>
+              <c:f>'DWR portfolio'!$G$45:$G$62</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.69166666666666599</c:v>
+                  <c:v>-0.32841579615361416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.719444444444444</c:v>
+                  <c:v>-0.26183627460569447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59722222222222199</c:v>
+                  <c:v>-0.25310644334679866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85833333333333295</c:v>
+                  <c:v>-0.14976232033333228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96388888888888902</c:v>
+                  <c:v>-5.1152522447381256E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82777777777777695</c:v>
+                  <c:v>-0.27074519175951361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72222222222222199</c:v>
+                  <c:v>-0.56953076650104317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.405555555555555</c:v>
+                  <c:v>-0.68707078103631225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41666666666666602</c:v>
+                  <c:v>-0.32841579615361416</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.875</c:v>
+                  <c:v>-6.075816322083899E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>-0.2238640408516821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61666666666666603</c:v>
+                  <c:v>-0.41642341436605113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35555555555555501</c:v>
+                  <c:v>-0.97651890415047937</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3888888888888801E-2</c:v>
+                  <c:v>-1.1945746647496951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15</c:v>
+                  <c:v>-0.65321251377534417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68611111111111101</c:v>
+                  <c:v>-0.27754889981445896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81111111111111101</c:v>
+                  <c:v>-0.13966199342900631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.875</c:v>
+                  <c:v>-0.29385141103685808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
+              <c:f>'DWR portfolio'!$C$46:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1309.3</c:v>
+                  <c:v>756.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.6</c:v>
+                  <c:v>1098.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1098.5</c:v>
+                  <c:v>771.69999999999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>771.69999999999902</c:v>
+                  <c:v>806.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806.7</c:v>
+                  <c:v>1079.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.4000000000001</c:v>
+                  <c:v>1254.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254.4000000000001</c:v>
+                  <c:v>1216.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1216.4000000000001</c:v>
+                  <c:v>987.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>987.8</c:v>
+                  <c:v>955.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>955.8</c:v>
+                  <c:v>902.19999999999902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>902.19999999999902</c:v>
+                  <c:v>1304.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1304.0999999999999</c:v>
+                  <c:v>1730.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1730.3</c:v>
+                  <c:v>1573.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1573.2</c:v>
+                  <c:v>1186.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1186.5999999999999</c:v>
+                  <c:v>917.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>917.1</c:v>
+                  <c:v>775.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>775.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>834.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3899,7 +6136,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EAB2-4205-8478-83E35DF95F6D}"/>
+              <c16:uniqueId val="{00000001-1205-44EF-9CFA-C30F9359A4E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3911,11 +6148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1034474112"/>
-        <c:axId val="1034474592"/>
+        <c:axId val="837156735"/>
+        <c:axId val="837150975"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1034474112"/>
+        <c:axId val="837156735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,15 +6192,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Surface Water Drought Indicator</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(SWDI)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3997,7 +6227,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4034,12 +6264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034474592"/>
+        <c:crossAx val="837150975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1034474592"/>
+        <c:axId val="837150975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,15 +6309,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Colorado Deliveries (maf)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log (Colorado)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4158,587 +6381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1034474112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Colorado WY'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pctl_gwchange_corr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.9253068188519116E-2"/>
-                  <c:y val="-0.42580052736722857"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Colorado WY'!$J$3:$J$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.18188622754490999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53742514970059796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32372754491017902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94872754491017897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71856287425149701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6826347305389198E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43974550898203502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32447604790419099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80800898203592797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88510479041916101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.415419161676646</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.100299401197604</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.4850299401197501E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.26983532934131699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29715568862275399</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.394461077844311</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88922155688622695</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.77357784431137699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1309.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>756.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1098.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>771.69999999999902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>806.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1079.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1254.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1216.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>987.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>955.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>902.19999999999902</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1304.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1730.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1573.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1186.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>917.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>775.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>834.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E61-4C60-AFCA-5A5CD58066CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1034474112"/>
-        <c:axId val="1034474592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1034474112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>GW Indicator</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1034474592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1034474592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Colorado Deliveries (maf)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1034474112"/>
+        <c:crossAx val="837156735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4849,11 +6492,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado WY'!$L$2</c:f>
+              <c:f>'Colorado WY'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI MEA</c:v>
+                  <c:v>SWDI delta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4890,14 +6533,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8906605424321856E-2"/>
-                  <c:y val="-0.35819079906678331"/>
+                  <c:x val="0.10266455480394732"/>
+                  <c:y val="-0.45271097123644927"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4932,63 +6576,63 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$L$3:$L$20</c:f>
+              <c:f>'Colorado WY'!$G$3:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.469444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60833333333333295</c:v>
+                  <c:v>0.54722222222222205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53888888888888797</c:v>
+                  <c:v>0.55833333333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54444444444444395</c:v>
+                  <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53888888888888797</c:v>
+                  <c:v>0.88888888888888895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44722222222222202</c:v>
+                  <c:v>0.53611111111111098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36944444444444402</c:v>
+                  <c:v>0.26944444444444399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.20555555555555499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26388888888888801</c:v>
+                  <c:v>0.469444444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>0.86944444444444402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.59722222222222199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40833333333333299</c:v>
+                  <c:v>0.38333333333333303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.266666666666666</c:v>
+                  <c:v>0.105555555555555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>6.3888888888888801E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4444444444444398E-2</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13055555555555501</c:v>
+                  <c:v>0.52777777777777701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13055555555555501</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25277777777777699</c:v>
+                  <c:v>0.50833333333333297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5059,7 +6703,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6BDA-4854-9E56-17E90143034D}"/>
+              <c16:uniqueId val="{00000001-F884-47BC-9297-3F971699BA82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5389,39 +7033,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Col</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> &amp; GW vs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SWDI delta </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5462,11 +7073,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado WY'!$F$22</c:f>
+              <c:f>'Colorado WY'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI delta</c:v>
+                  <c:v>SWDI SC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5509,8 +7120,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.8906605424321856E-2"/>
-                  <c:y val="-0.35819079906678331"/>
+                  <c:x val="0.17251835277319069"/>
+                  <c:y val="-0.41071058243746666"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5545,126 +7156,126 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$F$23:$F$40</c:f>
+              <c:f>'Colorado WY'!$H$3:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.469444444444444</c:v>
+                  <c:v>0.69166666666666599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54722222222222205</c:v>
+                  <c:v>0.719444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55833333333333302</c:v>
+                  <c:v>0.59722222222222199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70833333333333304</c:v>
+                  <c:v>0.85833333333333295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>0.96388888888888902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53611111111111098</c:v>
+                  <c:v>0.82777777777777695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26944444444444399</c:v>
+                  <c:v>0.72222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20555555555555499</c:v>
+                  <c:v>0.405555555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.469444444444444</c:v>
+                  <c:v>0.41666666666666602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86944444444444402</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59722222222222199</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38333333333333303</c:v>
+                  <c:v>0.61666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.105555555555555</c:v>
+                  <c:v>0.35555555555555501</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6.3888888888888801E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52777777777777701</c:v>
+                  <c:v>0.68611111111111101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>0.81111111111111101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50833333333333297</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado WY'!$E$23:$E$40</c:f>
+              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3206.8999999999996</c:v>
+                  <c:v>1309.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2299.2999999999902</c:v>
+                  <c:v>756.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2574.8000000000002</c:v>
+                  <c:v>1098.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2009.2999999999988</c:v>
+                  <c:v>771.69999999999902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2546.6000000000004</c:v>
+                  <c:v>806.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2881.8</c:v>
+                  <c:v>1079.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2951.5</c:v>
+                  <c:v>1254.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2960.9</c:v>
+                  <c:v>1216.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2396</c:v>
+                  <c:v>987.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2306.8000000000002</c:v>
+                  <c:v>955.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2386.2999999999988</c:v>
+                  <c:v>902.19999999999902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3128.3</c:v>
+                  <c:v>1304.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3716.3999999999996</c:v>
+                  <c:v>1730.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3035.5</c:v>
+                  <c:v>1573.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2517.6</c:v>
+                  <c:v>1186.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2496.4</c:v>
+                  <c:v>917.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2190.3000000000002</c:v>
+                  <c:v>775.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2196.8000000000002</c:v>
+                  <c:v>834.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,7 +7283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C0AB-4983-B541-A427CF52BCB3}"/>
+              <c16:uniqueId val="{00000001-EAB2-4205-8478-83E35DF95F6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6042,11 +7653,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado CY'!$G$2</c:f>
+              <c:f>'Colorado WY'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI delta</c:v>
+                  <c:v>pctl_gwchange_corr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6083,14 +7694,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10266455480394732"/>
-                  <c:y val="-0.45271097123644927"/>
+                  <c:x val="5.9253068188519116E-2"/>
+                  <c:y val="-0.42580052736722857"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6125,70 +7736,70 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$G$3:$G$20</c:f>
+              <c:f>'Colorado WY'!$J$3:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.46388888888888802</c:v>
+                  <c:v>0.18188622754490999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61111111111111105</c:v>
+                  <c:v>0.53742514970059796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51388888888888895</c:v>
+                  <c:v>0.32372754491017902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81111111111111101</c:v>
+                  <c:v>0.94872754491017897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89722222222222203</c:v>
+                  <c:v>0.71856287425149701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38055555555555498</c:v>
+                  <c:v>8.6826347305389198E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>0.43974550898203502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23055555555555499</c:v>
+                  <c:v>0.32447604790419099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57777777777777695</c:v>
+                  <c:v>0.80800898203592797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93055555555555503</c:v>
+                  <c:v>0.88510479041916101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48611111111111099</c:v>
+                  <c:v>0.415419161676646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.313888888888888</c:v>
+                  <c:v>0.100299401197604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2222222222222104E-2</c:v>
+                  <c:v>7.4850299401197501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.83333333333333E-2</c:v>
+                  <c:v>0.26983532934131699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3</c:v>
+                  <c:v>0.29715568862275399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46111111111111103</c:v>
+                  <c:v>0.394461077844311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79444444444444395</c:v>
+                  <c:v>0.88922155688622695</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41111111111111098</c:v>
+                  <c:v>0.77357784431137699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -6252,7 +7863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28DB-4C07-968B-7F61D8D34800}"/>
+              <c16:uniqueId val="{00000001-2E61-4C60-AFCA-5A5CD58066CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6316,7 +7927,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Surface Water Drought Indicator</a:t>
+                  <a:t>GW Indicator</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6622,11 +8233,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado CY'!$H$2</c:f>
+              <c:f>'Colorado WY'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI SC</c:v>
+                  <c:v>SWDI MEA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6669,8 +8280,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17251835277319069"/>
-                  <c:y val="-0.41071058243746666"/>
+                  <c:x val="5.8906605424321856E-2"/>
+                  <c:y val="-0.35819079906678331"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6705,70 +8316,70 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$H$3:$H$20</c:f>
+              <c:f>'Colorado WY'!$L$3:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.70833333333333304</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68333333333333302</c:v>
+                  <c:v>0.60833333333333295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.53888888888888797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97222222222222199</c:v>
+                  <c:v>0.54444444444444395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94444444444444398</c:v>
+                  <c:v>0.53888888888888797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78888888888888797</c:v>
+                  <c:v>0.44722222222222202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66111111111111098</c:v>
+                  <c:v>0.36944444444444402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35277777777777702</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50277777777777699</c:v>
+                  <c:v>0.26388888888888801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95277777777777795</c:v>
+                  <c:v>0.23611111111111099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84722222222222199</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.40833333333333299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23055555555555499</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2222222222222202E-2</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>4.4444444444444398E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66944444444444395</c:v>
+                  <c:v>0.13055555555555501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.13055555555555501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85555555555555496</c:v>
+                  <c:v>0.25277777777777699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -6832,7 +8443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C750-45AE-991E-1649B4773B8C}"/>
+              <c16:uniqueId val="{00000001-6BDA-4854-9E56-17E90143034D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7307,6 +8918,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9678,7 +11409,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10175,6 +11906,1541 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13851,16 +17117,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F36CF8-6DAA-BE33-3CD9-4DCC8EDD7CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13885,10 +17192,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8F0F3B-827D-DB6C-FA77-6E16DE641370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7324158C-8751-4AF1-87C9-4F50EDD5E0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14083,7 +17464,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14543,8 +17924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4660223-0DA4-43CD-8D75-7100DAA50041}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15141,11 +18522,657 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBE06B-ADFD-447A-B05A-F68516C9BC8A}">
-  <dimension ref="A1:U41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C99DE-E9E4-45E2-8598-70D9E66EDEF5}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.85915788088448797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.73815226428592395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.72178678080379421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="22">
+        <v>148.03157063858862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>988384.2366194725</v>
+      </c>
+      <c r="D12" s="22">
+        <v>988384.2366194725</v>
+      </c>
+      <c r="E12" s="22">
+        <v>45.104213700251961</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4.9568101459860103E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="22">
+        <v>16</v>
+      </c>
+      <c r="C13" s="22">
+        <v>350613.53449163929</v>
+      </c>
+      <c r="D13" s="22">
+        <v>21913.345905727456</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="23">
+        <v>17</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1338997.7711111119</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22">
+        <v>772.49801360723973</v>
+      </c>
+      <c r="C17" s="22">
+        <v>57.698872210011359</v>
+      </c>
+      <c r="D17" s="22">
+        <v>13.388442165654725</v>
+      </c>
+      <c r="E17" s="22">
+        <v>4.14723482009546E-10</v>
+      </c>
+      <c r="F17" s="22">
+        <v>650.18186865014661</v>
+      </c>
+      <c r="G17" s="22">
+        <v>894.81415856433284</v>
+      </c>
+      <c r="H17" s="22">
+        <v>650.18186865014661</v>
+      </c>
+      <c r="I17" s="22">
+        <v>894.81415856433284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="23">
+        <v>-778.43126970391586</v>
+      </c>
+      <c r="C18" s="23">
+        <v>115.90754711295837</v>
+      </c>
+      <c r="D18" s="23">
+        <v>-6.7159670711113506</v>
+      </c>
+      <c r="E18" s="23">
+        <v>4.9568101459860018E-6</v>
+      </c>
+      <c r="F18" s="23">
+        <v>-1024.1442930484136</v>
+      </c>
+      <c r="G18" s="23">
+        <v>-532.71824635941812</v>
+      </c>
+      <c r="H18" s="23">
+        <v>-1024.1442930484136</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-532.71824635941812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>1</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1028.14713879792</v>
+      </c>
+      <c r="C25" s="22">
+        <v>281.15286120207998</v>
+      </c>
+      <c r="E25">
+        <v>2002</v>
+      </c>
+      <c r="F25">
+        <f>B25</f>
+        <v>1028.14713879792</v>
+      </c>
+      <c r="G25">
+        <f>B25+C25</f>
+        <v>1309.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>2</v>
+      </c>
+      <c r="B26" s="22">
+        <v>976.31955730309369</v>
+      </c>
+      <c r="C26" s="22">
+        <v>-219.71955730309367</v>
+      </c>
+      <c r="E26">
+        <v>2003</v>
+      </c>
+      <c r="F26">
+        <f>B26</f>
+        <v>976.31955730309369</v>
+      </c>
+      <c r="G26">
+        <f>B26+C26</f>
+        <v>756.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>3</v>
+      </c>
+      <c r="B27" s="22">
+        <v>969.52398367193041</v>
+      </c>
+      <c r="C27" s="22">
+        <v>128.97601632806959</v>
+      </c>
+      <c r="E27">
+        <v>2004</v>
+      </c>
+      <c r="F27">
+        <f>B27</f>
+        <v>969.52398367193041</v>
+      </c>
+      <c r="G27">
+        <f>B27+C27</f>
+        <v>1098.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>4</v>
+      </c>
+      <c r="B28" s="22">
+        <v>889.0776867781201</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-117.37768677812107</v>
+      </c>
+      <c r="E28">
+        <v>2005</v>
+      </c>
+      <c r="F28">
+        <f>B28</f>
+        <v>889.0776867781201</v>
+      </c>
+      <c r="G28">
+        <f>B28+C28</f>
+        <v>771.69999999999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22">
+        <v>812.31673660451281</v>
+      </c>
+      <c r="C29" s="22">
+        <v>-5.6167366045127665</v>
+      </c>
+      <c r="E29">
+        <v>2006</v>
+      </c>
+      <c r="F29">
+        <f>B29</f>
+        <v>812.31673660451281</v>
+      </c>
+      <c r="G29">
+        <f>B29+C29</f>
+        <v>806.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>6</v>
+      </c>
+      <c r="B30" s="22">
+        <v>983.25453699482807</v>
+      </c>
+      <c r="C30" s="22">
+        <v>96.145463005172019</v>
+      </c>
+      <c r="E30">
+        <v>2007</v>
+      </c>
+      <c r="F30">
+        <f>B30</f>
+        <v>983.25453699482807</v>
+      </c>
+      <c r="G30">
+        <f>B30+C30</f>
+        <v>1079.4000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1215.8385713100911</v>
+      </c>
+      <c r="C31" s="22">
+        <v>38.561428689909008</v>
+      </c>
+      <c r="E31">
+        <v>2008</v>
+      </c>
+      <c r="F31">
+        <f>B31</f>
+        <v>1215.8385713100911</v>
+      </c>
+      <c r="G31">
+        <f>B31+C31</f>
+        <v>1254.4000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>8</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1307.3353940657976</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-90.935394065797482</v>
+      </c>
+      <c r="E32">
+        <v>2009</v>
+      </c>
+      <c r="F32">
+        <f>B32</f>
+        <v>1307.3353940657976</v>
+      </c>
+      <c r="G32">
+        <f>B32+C32</f>
+        <v>1216.4000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>9</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1028.14713879792</v>
+      </c>
+      <c r="C33" s="22">
+        <v>-40.347138797920024</v>
+      </c>
+      <c r="E33">
+        <v>2010</v>
+      </c>
+      <c r="F33">
+        <f>B33</f>
+        <v>1028.14713879792</v>
+      </c>
+      <c r="G33">
+        <f>B33+C33</f>
+        <v>987.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22">
+        <v>819.79406774811514</v>
+      </c>
+      <c r="C34" s="22">
+        <v>136.00593225188481</v>
+      </c>
+      <c r="E34">
+        <v>2011</v>
+      </c>
+      <c r="F34">
+        <f>B34</f>
+        <v>819.79406774811514</v>
+      </c>
+      <c r="G34">
+        <f>B34+C34</f>
+        <v>955.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>11</v>
+      </c>
+      <c r="B35" s="22">
+        <v>946.76078316846395</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-44.560783168464923</v>
+      </c>
+      <c r="E35">
+        <v>2012</v>
+      </c>
+      <c r="F35">
+        <f>B35</f>
+        <v>946.76078316846395</v>
+      </c>
+      <c r="G35">
+        <f>B35+C35</f>
+        <v>902.19999999999902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>12</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1096.6550207866449</v>
+      </c>
+      <c r="C36" s="22">
+        <v>207.44497921335505</v>
+      </c>
+      <c r="E36">
+        <v>2013</v>
+      </c>
+      <c r="F36">
+        <f>B36</f>
+        <v>1096.6550207866449</v>
+      </c>
+      <c r="G36">
+        <f>B36+C36</f>
+        <v>1304.0999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>13</v>
+      </c>
+      <c r="B37" s="22">
+        <v>1532.6508640549739</v>
+      </c>
+      <c r="C37" s="22">
+        <v>197.64913594502605</v>
+      </c>
+      <c r="E37">
+        <v>2014</v>
+      </c>
+      <c r="F37">
+        <f>B37</f>
+        <v>1532.6508640549739</v>
+      </c>
+      <c r="G37">
+        <f>B37+C37</f>
+        <v>1730.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>14</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1702.3922866444746</v>
+      </c>
+      <c r="C38" s="22">
+        <v>-129.19228664447451</v>
+      </c>
+      <c r="E38">
+        <v>2015</v>
+      </c>
+      <c r="F38">
+        <f>B38</f>
+        <v>1702.3922866444746</v>
+      </c>
+      <c r="G38">
+        <f>B38+C38</f>
+        <v>1573.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>15</v>
+      </c>
+      <c r="B39" s="22">
+        <v>1280.9790600918675</v>
+      </c>
+      <c r="C39" s="22">
+        <v>-94.379060091867586</v>
+      </c>
+      <c r="E39">
+        <v>2016</v>
+      </c>
+      <c r="F39">
+        <f>B39</f>
+        <v>1280.9790600918675</v>
+      </c>
+      <c r="G39">
+        <f>B39+C39</f>
+        <v>1186.5999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>16</v>
+      </c>
+      <c r="B40" s="22">
+        <v>988.55075609473397</v>
+      </c>
+      <c r="C40" s="22">
+        <v>-71.450756094733947</v>
+      </c>
+      <c r="E40">
+        <v>2018</v>
+      </c>
+      <c r="F40">
+        <f>B40</f>
+        <v>988.55075609473397</v>
+      </c>
+      <c r="G40">
+        <f>B40+C40</f>
+        <v>917.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>17</v>
+      </c>
+      <c r="B41" s="22">
+        <v>881.21527648156109</v>
+      </c>
+      <c r="C41" s="22">
+        <v>-105.81527648156111</v>
+      </c>
+      <c r="E41">
+        <v>2019</v>
+      </c>
+      <c r="F41">
+        <f>B41</f>
+        <v>881.21527648156109</v>
+      </c>
+      <c r="G41">
+        <f>B41+C41</f>
+        <v>775.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>18</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1001.2411406049484</v>
+      </c>
+      <c r="C42" s="23">
+        <v>-166.5411406049484</v>
+      </c>
+      <c r="E42">
+        <v>2020</v>
+      </c>
+      <c r="F42">
+        <f>B42</f>
+        <v>1001.2411406049484</v>
+      </c>
+      <c r="G42">
+        <f>B42+C42</f>
+        <v>834.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBE06B-ADFD-447A-B05A-F68516C9BC8A}">
+  <dimension ref="A1:U62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15240,9 +19267,6 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
       <c r="B3" s="1">
         <v>1533.5</v>
       </c>
@@ -15313,9 +19337,6 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
       <c r="B4" s="1">
         <v>1712.8999999999901</v>
       </c>
@@ -15386,9 +19407,6 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
       <c r="B5" s="1">
         <v>1836.19999999999</v>
       </c>
@@ -15459,9 +19477,6 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
       <c r="B6" s="1">
         <v>1528.5</v>
       </c>
@@ -15532,9 +19547,6 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
       <c r="B7" s="1">
         <v>1469.7</v>
       </c>
@@ -15605,9 +19617,6 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
       <c r="B8" s="1">
         <v>1596.4</v>
       </c>
@@ -15678,9 +19687,6 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
       <c r="B9" s="1">
         <v>1269.2</v>
       </c>
@@ -15751,9 +19757,6 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
       <c r="B10" s="1">
         <v>985.7</v>
       </c>
@@ -15824,9 +19827,6 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
       <c r="B11" s="1">
         <v>826.9</v>
       </c>
@@ -15897,9 +19897,6 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
       <c r="B12" s="1">
         <v>900.69999999999902</v>
       </c>
@@ -15970,9 +19967,6 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
       <c r="B13" s="1">
         <v>1170.3999999999901</v>
       </c>
@@ -16043,9 +20037,6 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
       <c r="B14" s="1">
         <v>1060.8</v>
       </c>
@@ -16116,9 +20107,6 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
       <c r="B15" s="1">
         <v>642.9</v>
       </c>
@@ -16189,9 +20177,6 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
       <c r="B16" s="1">
         <v>456.4</v>
       </c>
@@ -16262,9 +20247,6 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
       <c r="B17" s="1">
         <v>917.3</v>
       </c>
@@ -16335,9 +20317,6 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2018</v>
-      </c>
       <c r="B18" s="1">
         <v>1042.9000000000001</v>
       </c>
@@ -16408,9 +20387,6 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2019</v>
-      </c>
       <c r="B19" s="1">
         <v>921.5</v>
       </c>
@@ -16481,9 +20457,6 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2020</v>
-      </c>
       <c r="B20" s="2">
         <v>1039.5999999999999</v>
       </c>
@@ -16785,7 +20758,7 @@
         <v>-9.2583811469277355E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2011</v>
       </c>
@@ -16807,7 +20780,7 @@
         <v>-5.3005308729678013E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2012</v>
       </c>
@@ -16829,7 +20802,7 @@
         <v>-0.38151347501685134</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2013</v>
       </c>
@@ -16851,7 +20824,7 @@
         <v>-0.99870165977472269</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -16873,7 +20846,7 @@
         <v>-1.1258064581395275</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -16895,7 +20868,7 @@
         <v>-0.56890118908407961</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -16917,7 +20890,7 @@
         <v>-0.52701595137641255</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2018</v>
       </c>
@@ -16939,7 +20912,7 @@
         <v>-0.40399584292698065</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -16961,7 +20934,7 @@
         <v>-5.0990017494352412E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2020</v>
       </c>
@@ -16981,6 +20954,267 @@
       <c r="F41" s="8">
         <f t="shared" si="9"/>
         <v>-0.11149597717621995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1309.3</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.469444444444444</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45:G62">LOG10(C45:D62)</f>
+        <v>3.1170391678776785</v>
+      </c>
+      <c r="G45">
+        <v>-0.32841579615361416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>756.6</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.54722222222222205</v>
+      </c>
+      <c r="F46">
+        <v>2.8788663369567251</v>
+      </c>
+      <c r="G46">
+        <v>-0.26183627460569447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1098.5</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.55833333333333302</v>
+      </c>
+      <c r="F47">
+        <v>3.0408000612565291</v>
+      </c>
+      <c r="G47">
+        <v>-0.25310644334679866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>771.69999999999902</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F48">
+        <v>2.887448500249953</v>
+      </c>
+      <c r="G48">
+        <v>-0.14976232033333228</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>806.7</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="F49">
+        <v>2.9067120569429639</v>
+      </c>
+      <c r="G49">
+        <v>-5.1152522447381256E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1079.4000000000001</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.53611111111111098</v>
+      </c>
+      <c r="F50">
+        <v>3.0331824137291949</v>
+      </c>
+      <c r="G50">
+        <v>-0.27074519175951361</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="F51">
+        <v>3.0984360453403634</v>
+      </c>
+      <c r="G51">
+        <v>-0.56953076650104317</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1216.4000000000001</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.20555555555555499</v>
+      </c>
+      <c r="F52">
+        <v>3.0850764114720945</v>
+      </c>
+      <c r="G52">
+        <v>-0.68707078103631225</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>987.8</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.469444444444444</v>
+      </c>
+      <c r="F53">
+        <v>2.9946690218255294</v>
+      </c>
+      <c r="G53">
+        <v>-0.32841579615361416</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>955.8</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.86944444444444402</v>
+      </c>
+      <c r="F54">
+        <v>2.980367026184775</v>
+      </c>
+      <c r="G54">
+        <v>-6.075816322083899E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>902.19999999999902</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="F55">
+        <v>2.9553028227616913</v>
+      </c>
+      <c r="G55">
+        <v>-0.2238640408516821</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1304.0999999999999</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="F56">
+        <v>3.1153108949104995</v>
+      </c>
+      <c r="G56">
+        <v>-0.41642341436605113</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1730.3</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.105555555555555</v>
+      </c>
+      <c r="F57">
+        <v>3.2381214077815117</v>
+      </c>
+      <c r="G57">
+        <v>-0.97651890415047937</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1573.2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>6.3888888888888801E-2</v>
+      </c>
+      <c r="F58">
+        <v>3.1967839377377092</v>
+      </c>
+      <c r="G58">
+        <v>-1.1945746647496951</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1186.5999999999999</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="F59">
+        <v>3.074304344001435</v>
+      </c>
+      <c r="G59">
+        <v>-0.65321251377534417</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>917.1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="F60">
+        <v>2.9624166934457512</v>
+      </c>
+      <c r="G60">
+        <v>-0.27754889981445896</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>775.4</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F61">
+        <v>2.8895257966711911</v>
+      </c>
+      <c r="G61">
+        <v>-0.13966199342900631</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <v>834.7</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.50833333333333297</v>
+      </c>
+      <c r="F62">
+        <v>2.9215304135012423</v>
+      </c>
+      <c r="G62">
+        <v>-0.29385141103685808</v>
       </c>
     </row>
   </sheetData>
@@ -16989,7 +21223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925C875-B7B9-40A6-9ABF-BDD5035DCD57}">
   <dimension ref="B2:M40"/>
   <sheetViews>
@@ -18125,7 +22359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EE1A70-FB79-46B4-B76D-D3B023D31F47}">
   <dimension ref="B2:M40"/>
   <sheetViews>

--- a/Analysis/Supply Analysis/Colorado Analysis.xlsx
+++ b/Analysis/Supply Analysis/Colorado Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\Drought Indicators - SoCal\Analysis\Supply Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79025-3BC9-4D4E-BBD7-AFA3B5058378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934F78AE-D067-4AC9-867F-3DB119A23536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 var" sheetId="118" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>SWDI SC</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Estimated Colorado River imports</t>
+  </si>
+  <si>
+    <t>SWDI Colorado</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -429,13 +432,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,11 +1530,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado CY'!$G$2</c:f>
+              <c:f>'Colorado WY'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI delta</c:v>
+                  <c:v>SWDI Colorado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1573,14 +1571,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10266455480394732"/>
-                  <c:y val="-0.45271097123644927"/>
+                  <c:x val="5.8906605424321856E-2"/>
+                  <c:y val="-0.35819079906678331"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1615,70 +1613,70 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$G$3:$G$20</c:f>
+              <c:f>'Colorado WY'!$N$3:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.46388888888888802</c:v>
+                  <c:v>0.70833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61111111111111105</c:v>
+                  <c:v>0.58888888888888802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51388888888888895</c:v>
+                  <c:v>0.42777777777777698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81111111111111101</c:v>
+                  <c:v>0.33888888888888802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89722222222222203</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38055555555555498</c:v>
+                  <c:v>0.422222222222222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>0.31944444444444398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23055555555555499</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57777777777777695</c:v>
+                  <c:v>0.39444444444444399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93055555555555503</c:v>
+                  <c:v>0.405555555555555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48611111111111099</c:v>
+                  <c:v>0.58055555555555505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.313888888888888</c:v>
+                  <c:v>0.37222222222222201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2222222222222104E-2</c:v>
+                  <c:v>0.141666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.83333333333333E-2</c:v>
+                  <c:v>0.116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3</c:v>
+                  <c:v>0.102777777777777</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46111111111111103</c:v>
+                  <c:v>0.219444444444444</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79444444444444395</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41111111111111098</c:v>
+                  <c:v>0.211111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:f>'Colorado WY'!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1742,7 +1740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-28DB-4C07-968B-7F61D8D34800}"/>
+              <c16:uniqueId val="{00000001-A60D-4B0A-A830-DD74783D2325}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2112,11 +2110,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Colorado CY'!$H$2</c:f>
+              <c:f>'Colorado CY'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SWDI SC</c:v>
+                  <c:v>SWDI delta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2153,14 +2151,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17251835277319069"/>
-                  <c:y val="-0.41071058243746666"/>
+                  <c:x val="0.10266455480394732"/>
+                  <c:y val="-0.45271097123644927"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2195,63 +2193,63 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Colorado CY'!$H$3:$H$20</c:f>
+              <c:f>'Colorado CY'!$G$3:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.70833333333333304</c:v>
+                  <c:v>0.46388888888888802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68333333333333302</c:v>
+                  <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.51388888888888895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97222222222222199</c:v>
+                  <c:v>0.81111111111111101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94444444444444398</c:v>
+                  <c:v>0.89722222222222203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78888888888888797</c:v>
+                  <c:v>0.38055555555555498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66111111111111098</c:v>
+                  <c:v>0.23611111111111099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35277777777777702</c:v>
+                  <c:v>0.23055555555555499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50277777777777699</c:v>
+                  <c:v>0.57777777777777695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95277777777777795</c:v>
+                  <c:v>0.93055555555555503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84722222222222199</c:v>
+                  <c:v>0.48611111111111099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.313888888888888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23055555555555499</c:v>
+                  <c:v>7.2222222222222104E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2222222222222202E-2</c:v>
+                  <c:v>5.83333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23611111111111099</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66944444444444395</c:v>
+                  <c:v>0.46111111111111103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.79444444444444395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85555555555555496</c:v>
+                  <c:v>0.41111111111111098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,7 +2320,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C750-45AE-991E-1649B4773B8C}"/>
+              <c16:uniqueId val="{00000001-28DB-4C07-968B-7F61D8D34800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2692,6 +2690,586 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Colorado CY'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SWDI SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17251835277319069"/>
+                  <c:y val="-0.41071058243746666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$H$3:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.70833333333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78888888888888797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66111111111111098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35277777777777702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50277777777777699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95277777777777795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84722222222222199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23055555555555499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2222222222222202E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23611111111111099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66944444444444395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86666666666666603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85555555555555496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Colorado CY'!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1309.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1098.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>771.69999999999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1254.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1216.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>955.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>902.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1304.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1730.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1573.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1186.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>917.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>775.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>834.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C750-45AE-991E-1649B4773B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034474112"/>
+        <c:axId val="1034474592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1034474112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Surface Water Drought Indicator</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1034474592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Colorado Deliveries (maf)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034474112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Colorado CY'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3217,7 +3795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3797,7 +4375,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9038,6 +9616,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12442,6 +13060,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17461,6 +18595,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>52202</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>134216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D255B358-4A46-4446-BA02-A65A9A06F041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17924,7 +19096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4660223-0DA4-43CD-8D75-7100DAA50041}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -18538,48 +19710,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4">
         <v>0.85915788088448797</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5">
         <v>0.73815226428592395</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6">
         <v>0.72178678080379421</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7">
         <v>148.03157063858862</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="19">
         <v>18</v>
       </c>
     </row>
@@ -18589,156 +19761,154 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>988384.2366194725</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12">
         <v>988384.2366194725</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12">
         <v>45.104213700251961</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12">
         <v>4.9568101459860103E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>350613.53449163929</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13">
         <v>21913.345905727456</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>17</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <v>1338997.7711111119</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17">
         <v>772.49801360723973</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>57.698872210011359</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17">
         <v>13.388442165654725</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17">
         <v>4.14723482009546E-10</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <v>650.18186865014661</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17">
         <v>894.81415856433284</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17">
         <v>650.18186865014661</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17">
         <v>894.81415856433284</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="19">
         <v>-778.43126970391586</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>115.90754711295837</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>-6.7159670711113506</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>4.9568101459860018E-6</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="19">
         <v>-1024.1442930484136</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="19">
         <v>-532.71824635941812</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="19">
         <v>-1024.1442930484136</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="19">
         <v>-532.71824635941812</v>
       </c>
     </row>
@@ -18749,13 +19919,13 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
@@ -18766,398 +19936,398 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25">
         <v>1028.14713879792</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <v>281.15286120207998</v>
       </c>
       <c r="E25">
         <v>2002</v>
       </c>
       <c r="F25">
-        <f>B25</f>
+        <f t="shared" ref="F25:F42" si="0">B25</f>
         <v>1028.14713879792</v>
       </c>
       <c r="G25">
-        <f>B25+C25</f>
+        <f t="shared" ref="G25:G42" si="1">B25+C25</f>
         <v>1309.3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <v>976.31955730309369</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>-219.71955730309367</v>
       </c>
       <c r="E26">
         <v>2003</v>
       </c>
       <c r="F26">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>976.31955730309369</v>
       </c>
       <c r="G26">
-        <f>B26+C26</f>
+        <f t="shared" si="1"/>
         <v>756.6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <v>969.52398367193041</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>128.97601632806959</v>
       </c>
       <c r="E27">
         <v>2004</v>
       </c>
       <c r="F27">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>969.52398367193041</v>
       </c>
       <c r="G27">
-        <f>B27+C27</f>
+        <f t="shared" si="1"/>
         <v>1098.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28">
         <v>889.0776867781201</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>-117.37768677812107</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>889.0776867781201</v>
       </c>
       <c r="G28">
-        <f>B28+C28</f>
+        <f t="shared" si="1"/>
         <v>771.69999999999902</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29">
         <v>812.31673660451281</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29">
         <v>-5.6167366045127665</v>
       </c>
       <c r="E29">
         <v>2006</v>
       </c>
       <c r="F29">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>812.31673660451281</v>
       </c>
       <c r="G29">
-        <f>B29+C29</f>
+        <f t="shared" si="1"/>
         <v>806.7</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30">
         <v>983.25453699482807</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30">
         <v>96.145463005172019</v>
       </c>
       <c r="E30">
         <v>2007</v>
       </c>
       <c r="F30">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>983.25453699482807</v>
       </c>
       <c r="G30">
-        <f>B30+C30</f>
+        <f t="shared" si="1"/>
         <v>1079.4000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31">
         <v>1215.8385713100911</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31">
         <v>38.561428689909008</v>
       </c>
       <c r="E31">
         <v>2008</v>
       </c>
       <c r="F31">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>1215.8385713100911</v>
       </c>
       <c r="G31">
-        <f>B31+C31</f>
+        <f t="shared" si="1"/>
         <v>1254.4000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32">
         <v>1307.3353940657976</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32">
         <v>-90.935394065797482</v>
       </c>
       <c r="E32">
         <v>2009</v>
       </c>
       <c r="F32">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>1307.3353940657976</v>
       </c>
       <c r="G32">
-        <f>B32+C32</f>
+        <f t="shared" si="1"/>
         <v>1216.4000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33">
         <v>9</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33">
         <v>1028.14713879792</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33">
         <v>-40.347138797920024</v>
       </c>
       <c r="E33">
         <v>2010</v>
       </c>
       <c r="F33">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>1028.14713879792</v>
       </c>
       <c r="G33">
-        <f>B33+C33</f>
+        <f t="shared" si="1"/>
         <v>987.8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34">
         <v>819.79406774811514</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34">
         <v>136.00593225188481</v>
       </c>
       <c r="E34">
         <v>2011</v>
       </c>
       <c r="F34">
-        <f>B34</f>
+        <f t="shared" si="0"/>
         <v>819.79406774811514</v>
       </c>
       <c r="G34">
-        <f>B34+C34</f>
+        <f t="shared" si="1"/>
         <v>955.8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35">
         <v>946.76078316846395</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35">
         <v>-44.560783168464923</v>
       </c>
       <c r="E35">
         <v>2012</v>
       </c>
       <c r="F35">
-        <f>B35</f>
+        <f t="shared" si="0"/>
         <v>946.76078316846395</v>
       </c>
       <c r="G35">
-        <f>B35+C35</f>
+        <f t="shared" si="1"/>
         <v>902.19999999999902</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36">
         <v>12</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36">
         <v>1096.6550207866449</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36">
         <v>207.44497921335505</v>
       </c>
       <c r="E36">
         <v>2013</v>
       </c>
       <c r="F36">
-        <f>B36</f>
+        <f t="shared" si="0"/>
         <v>1096.6550207866449</v>
       </c>
       <c r="G36">
-        <f>B36+C36</f>
+        <f t="shared" si="1"/>
         <v>1304.0999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37">
         <v>1532.6508640549739</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37">
         <v>197.64913594502605</v>
       </c>
       <c r="E37">
         <v>2014</v>
       </c>
       <c r="F37">
-        <f>B37</f>
+        <f t="shared" si="0"/>
         <v>1532.6508640549739</v>
       </c>
       <c r="G37">
-        <f>B37+C37</f>
+        <f t="shared" si="1"/>
         <v>1730.3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38">
         <v>14</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38">
         <v>1702.3922866444746</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38">
         <v>-129.19228664447451</v>
       </c>
       <c r="E38">
         <v>2015</v>
       </c>
       <c r="F38">
-        <f>B38</f>
+        <f t="shared" si="0"/>
         <v>1702.3922866444746</v>
       </c>
       <c r="G38">
-        <f>B38+C38</f>
+        <f t="shared" si="1"/>
         <v>1573.2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39">
         <v>1280.9790600918675</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39">
         <v>-94.379060091867586</v>
       </c>
       <c r="E39">
         <v>2016</v>
       </c>
       <c r="F39">
-        <f>B39</f>
+        <f t="shared" si="0"/>
         <v>1280.9790600918675</v>
       </c>
       <c r="G39">
-        <f>B39+C39</f>
+        <f t="shared" si="1"/>
         <v>1186.5999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40">
         <v>16</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40">
         <v>988.55075609473397</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40">
         <v>-71.450756094733947</v>
       </c>
       <c r="E40">
         <v>2018</v>
       </c>
       <c r="F40">
-        <f>B40</f>
+        <f t="shared" si="0"/>
         <v>988.55075609473397</v>
       </c>
       <c r="G40">
-        <f>B40+C40</f>
+        <f t="shared" si="1"/>
         <v>917.1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41">
         <v>17</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41">
         <v>881.21527648156109</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41">
         <v>-105.81527648156111</v>
       </c>
       <c r="E41">
         <v>2019</v>
       </c>
       <c r="F41">
-        <f>B41</f>
+        <f t="shared" si="0"/>
         <v>881.21527648156109</v>
       </c>
       <c r="G41">
-        <f>B41+C41</f>
+        <f t="shared" si="1"/>
         <v>775.4</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="A42" s="19">
         <v>18</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="19">
         <v>1001.2411406049484</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="19">
         <v>-166.5411406049484</v>
       </c>
       <c r="E42">
         <v>2020</v>
       </c>
       <c r="F42">
-        <f>B42</f>
+        <f t="shared" si="0"/>
         <v>1001.2411406049484</v>
       </c>
       <c r="G42">
-        <f>B42+C42</f>
+        <f t="shared" si="1"/>
         <v>834.7</v>
       </c>
     </row>
@@ -21225,15 +22395,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925C875-B7B9-40A6-9ABF-BDD5035DCD57}">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
@@ -21270,8 +22440,11 @@
       <c r="M2" t="s">
         <v>44</v>
       </c>
+      <c r="N2" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>2002</v>
       </c>
@@ -21308,8 +22481,11 @@
       <c r="M3" s="8">
         <v>0.71388888888888802</v>
       </c>
+      <c r="N3" s="8">
+        <v>0.70833333333333304</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2003</v>
       </c>
@@ -21346,8 +22522,11 @@
       <c r="M4" s="8">
         <v>0.438888888888888</v>
       </c>
+      <c r="N4" s="8">
+        <v>0.58888888888888802</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>2004</v>
       </c>
@@ -21384,8 +22563,11 @@
       <c r="M5" s="8">
         <v>0.133333333333333</v>
       </c>
+      <c r="N5" s="8">
+        <v>0.42777777777777698</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2005</v>
       </c>
@@ -21422,8 +22604,11 @@
       <c r="M6" s="8">
         <v>6.6666666666666596E-2</v>
       </c>
+      <c r="N6" s="8">
+        <v>0.33888888888888802</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>2006</v>
       </c>
@@ -21460,8 +22645,11 @@
       <c r="M7" s="8">
         <v>0.21388888888888799</v>
       </c>
+      <c r="N7" s="8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>2007</v>
       </c>
@@ -21498,8 +22686,11 @@
       <c r="M8" s="8">
         <v>0.3</v>
       </c>
+      <c r="N8" s="8">
+        <v>0.422222222222222</v>
+      </c>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>2008</v>
       </c>
@@ -21536,8 +22727,11 @@
       <c r="M9" s="8">
         <v>0.27777777777777701</v>
       </c>
+      <c r="N9" s="8">
+        <v>0.31944444444444398</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>2009</v>
       </c>
@@ -21574,8 +22768,11 @@
       <c r="M10" s="8">
         <v>0.53333333333333299</v>
       </c>
+      <c r="N10" s="8">
+        <v>0.42499999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>2010</v>
       </c>
@@ -21612,8 +22809,11 @@
       <c r="M11" s="8">
         <v>0.61388888888888804</v>
       </c>
+      <c r="N11" s="8">
+        <v>0.39444444444444399</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>2011</v>
       </c>
@@ -21650,8 +22850,11 @@
       <c r="M12" s="8">
         <v>0.60555555555555496</v>
       </c>
+      <c r="N12" s="8">
+        <v>0.405555555555555</v>
+      </c>
     </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>2012</v>
       </c>
@@ -21688,8 +22891,11 @@
       <c r="M13" s="8">
         <v>0.63333333333333297</v>
       </c>
+      <c r="N13" s="8">
+        <v>0.58055555555555505</v>
+      </c>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>2013</v>
       </c>
@@ -21726,8 +22932,11 @@
       <c r="M14" s="8">
         <v>0.29166666666666602</v>
       </c>
+      <c r="N14" s="8">
+        <v>0.37222222222222201</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>2014</v>
       </c>
@@ -21764,8 +22973,11 @@
       <c r="M15" s="8">
         <v>0.133333333333333</v>
       </c>
+      <c r="N15" s="8">
+        <v>0.141666666666666</v>
+      </c>
     </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>2015</v>
       </c>
@@ -21802,8 +23014,11 @@
       <c r="M16" s="8">
         <v>0.249999999999999</v>
       </c>
+      <c r="N16" s="8">
+        <v>0.116666666666666</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>2016</v>
       </c>
@@ -21840,8 +23055,11 @@
       <c r="M17" s="8">
         <v>0.30555555555555503</v>
       </c>
+      <c r="N17" s="8">
+        <v>0.102777777777777</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>2018</v>
       </c>
@@ -21878,8 +23096,11 @@
       <c r="M18" s="8">
         <v>0.42499999999999999</v>
       </c>
+      <c r="N18" s="8">
+        <v>0.219444444444444</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>2019</v>
       </c>
@@ -21916,8 +23137,11 @@
       <c r="M19" s="8">
         <v>0.141666666666666</v>
       </c>
+      <c r="N19" s="8">
+        <v>8.3333333333333301E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>2020</v>
       </c>
@@ -21954,8 +23178,11 @@
       <c r="M20" s="8">
         <v>0.33611111111111103</v>
       </c>
+      <c r="N20" s="8">
+        <v>0.211111111111111</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
@@ -21975,7 +23202,7 @@
         <v>SWDI delta</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>2002</v>
       </c>
@@ -21996,7 +23223,7 @@
         <v>0.469444444444444</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>2003</v>
       </c>
@@ -22017,7 +23244,7 @@
         <v>0.54722222222222205</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>2004</v>
       </c>
@@ -22038,7 +23265,7 @@
         <v>0.55833333333333302</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>2005</v>
       </c>
@@ -22059,7 +23286,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>2006</v>
       </c>
@@ -22080,7 +23307,7 @@
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>2007</v>
       </c>
@@ -22101,7 +23328,7 @@
         <v>0.53611111111111098</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>2008</v>
       </c>
@@ -22122,7 +23349,7 @@
         <v>0.26944444444444399</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="16">
         <v>2009</v>
       </c>
@@ -22143,7 +23370,7 @@
         <v>0.20555555555555499</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <v>2010</v>
       </c>
@@ -22164,7 +23391,7 @@
         <v>0.469444444444444</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="16">
         <v>2011</v>
       </c>
